--- a/Rapports/P4_01_analyse.xlsx
+++ b/Rapports/P4_01_analyse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25017"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicopatsch/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64B90960-9194-4CA6-8C33-08D18A93B657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89396D4A-3040-4CD1-9687-828D61D2142C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="620" windowWidth="27860" windowHeight="17380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>Catégorie</t>
   </si>
@@ -77,6 +76,9 @@
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Global_attributes/lang</t>
+  </si>
+  <si>
+    <t>Lighthouse</t>
   </si>
   <si>
     <t>SEO</t>
@@ -104,7 +106,7 @@
 Balises h2 pas optimisées</t>
   </si>
   <si>
-    <t>La structure des headings à respecter est : un seul h1, un ou plusieurs h2, un ou plusieurs h3, etc.
+    <t>La structure des headings à respecter est: un seul h1, un ou plusieurs h2, un ou plusieurs h3, etc.
 Il faut que les balises h2 contiennent soit le mot-clé ou un synonime</t>
   </si>
   <si>
@@ -160,7 +162,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> "WAVE"</t>
+    <t>WAVE</t>
   </si>
   <si>
     <t>Performance</t>
@@ -169,18 +171,15 @@
     <t>Taille du site web non-optimisé</t>
   </si>
   <si>
-    <t xml:space="preserve">- Les fichiers javascript et css ne sont pas minifiés
+    <t xml:space="preserve">Les fichiers javascript et css ne sont pas minifiés
 </t>
   </si>
   <si>
-    <t xml:space="preserve">- Minifier les fichiers javascript et css.
+    <t xml:space="preserve">Minifier les fichiers javascript et css.
 </t>
   </si>
   <si>
     <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site</t>
-  </si>
-  <si>
-    <t>"Lighthouse"</t>
   </si>
   <si>
     <t>Attribut alt incorrect sur les images du logo, des réalisations de l'agence</t>
@@ -247,6 +246,18 @@
     <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055226-pensez-mobile-first</t>
   </si>
   <si>
+    <t>Le site met de temps à se charger</t>
+  </si>
+  <si>
+    <t>Vitesse de chargement du site à améliorer, il y a des bibliothèques téléchargées dans le projet (FontAwesome, Bootstrap, jQuery)</t>
+  </si>
+  <si>
+    <t>Utiliser les CDN disponibles pour ces bibliothèques</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055241-appuyez-vous-sur-un-content-delivery-network</t>
+  </si>
+  <si>
     <t>Manque de lien et de partenaires potentiels (backlinks)</t>
   </si>
   <si>
@@ -277,7 +288,7 @@
     <t>Absence outil de suivi SEO</t>
   </si>
   <si>
-    <t>Pas de google analytics / google search console sur les pages</t>
+    <t>Pas de Google analytics / Google search console sur les pages</t>
   </si>
   <si>
     <t xml:space="preserve">Paramétrer les outils de suivi concernés
@@ -313,6 +324,9 @@
     <t>https://www.w3.org/TR/WCAG21/#labels-or-instructions</t>
   </si>
   <si>
+    <t xml:space="preserve"> WAVE</t>
+  </si>
+  <si>
     <t>Niveaux de contraste taille de textes insuffisant pour  heading h1, buton Contact, texte footer, liens dans footer</t>
   </si>
   <si>
@@ -326,6 +340,9 @@
 https://www.w3.org/Translations/NOTE-UNDERSTANDING-WCAG20-fr/visual-audio-contrast-contrast.html</t>
   </si>
   <si>
+    <t xml:space="preserve"> Lighthouse</t>
+  </si>
+  <si>
     <t>Liens "réseaux sociaux" vides</t>
   </si>
   <si>
@@ -341,38 +358,14 @@
 https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
   </si>
   <si>
-    <t>Logo Texte intégré comme image</t>
-  </si>
-  <si>
-    <t>tailles des textes trop petites</t>
-  </si>
-  <si>
-    <t>Google Analytics marqué en commentaire, mais vide</t>
-  </si>
-  <si>
-    <t>Images en format png d'une taille plus grande</t>
-  </si>
-  <si>
-    <t>Réduire la taille des images, par compression</t>
-  </si>
-  <si>
-    <t>Titre2: texte intégré en tant que image</t>
-  </si>
-  <si>
-    <t>Contraste incorrect sur le bloc "Nous souhaitons ..."</t>
-  </si>
-  <si>
-    <t>Taille du texte trop petite sur le bloc "Nous souhaitons</t>
-  </si>
-  <si>
-    <t>Tailles des paragraphes trop petites</t>
+    <t>Lighthouse, WAVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,19 +420,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -473,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -508,7 +488,7 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -518,13 +498,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -565,9 +571,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -577,15 +580,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -595,23 +592,41 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -835,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1006"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -848,7 +863,7 @@
     <col min="3" max="3" width="25" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.6640625" style="1" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" style="1" customWidth="1"/>
     <col min="27" max="16384" width="11.33203125" style="1"/>
   </cols>
@@ -892,119 +907,121 @@
       <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:26" s="12" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="13" customFormat="1" ht="117.75" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="20" customFormat="1" ht="122.25" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="15" t="s">
+    </row>
+    <row r="6" spans="1:26" s="12" customFormat="1" ht="117.75" customHeight="1">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="B6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="13" customFormat="1" ht="117.75" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="F6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="23" customFormat="1" ht="122.25" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="12" customFormat="1" ht="117.75" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="69.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -1026,89 +1043,90 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" s="12" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:26" s="26" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
+      <c r="G8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
     </row>
     <row r="9" spans="1:26" s="12" customFormat="1" ht="61.5" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>44</v>
       </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="F9" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="23" customFormat="1" ht="96.75" customHeight="1">
-      <c r="A10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="20" customFormat="1" ht="96.75" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>17</v>
+      <c r="G10" s="18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="12" customFormat="1" ht="55.5" customHeight="1">
@@ -1121,82 +1139,91 @@
       <c r="C11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" s="11" customFormat="1" ht="48" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="G11" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="20" customFormat="1" ht="48" customHeight="1">
+      <c r="A12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="11" customFormat="1" ht="69" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="G12" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="20" customFormat="1" ht="69" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="20" customFormat="1" ht="69" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="11" customFormat="1" ht="94.9" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="11" customFormat="1" ht="67.900000000000006" customHeight="1">
+    </row>
+    <row r="15" spans="1:26" s="11" customFormat="1" ht="94.9" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>66</v>
@@ -1212,35 +1239,33 @@
         <v>69</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="23" customFormat="1" ht="201" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="11" customFormat="1" ht="67.900000000000006" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>17</v>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="201" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>74</v>
@@ -1253,82 +1278,114 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A18" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="201" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="20" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="21" t="s">
+      <c r="B19" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" ht="93.75" customHeight="1">
-      <c r="A19" s="21" t="s">
+      <c r="F19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="20" customFormat="1" ht="93.75" customHeight="1">
+      <c r="A20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="21" t="s">
+      <c r="B20" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="24" customFormat="1" ht="97.15" customHeight="1">
-      <c r="A20" s="25" t="s">
+      <c r="F20" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="32" customFormat="1" ht="97.15" customHeight="1">
+      <c r="A21" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="26" t="s">
+      <c r="B21" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1"/>
+      <c r="F21" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1">
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1">
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1">
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1">
+      <c r="G25" s="18"/>
+    </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="30" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:7" ht="15.75" customHeight="1"/>
@@ -1349,81 +1406,22 @@
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -2366,6 +2364,7 @@
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{2AF12BB3-43FA-4A0A-BA97-CC72D6629954}"/>
@@ -2376,14 +2375,15 @@
     <hyperlink ref="F10" r:id="rId6" xr:uid="{2E0E87D9-8BBC-4E01-A556-E5D5393012D9}"/>
     <hyperlink ref="F12" r:id="rId7" location="link-purpose-in-context" xr:uid="{24487230-56B4-4946-8721-37A3C3071846}"/>
     <hyperlink ref="F13" r:id="rId8" xr:uid="{4E6B03B0-1086-410D-A8F4-DB53EEDDB8AE}"/>
-    <hyperlink ref="F15" r:id="rId9" xr:uid="{8195CAFE-B188-433B-8480-A5116D7B833B}"/>
-    <hyperlink ref="F14" r:id="rId10" display="https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578346-augmentez-lautorite-de-votre-site" xr:uid="{42E030FE-AB6D-49E5-AFFD-FE04D4380B8C}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{8195CAFE-B188-433B-8480-A5116D7B833B}"/>
+    <hyperlink ref="F15" r:id="rId10" display="https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578346-augmentez-lautorite-de-votre-site" xr:uid="{42E030FE-AB6D-49E5-AFFD-FE04D4380B8C}"/>
     <hyperlink ref="F8" r:id="rId11" xr:uid="{54007255-F898-4BEE-AC82-284A097D8EFA}"/>
     <hyperlink ref="F11" r:id="rId12" xr:uid="{FDDD2E74-10B7-4770-AB1A-8414E9400E75}"/>
-    <hyperlink ref="F18" r:id="rId13" location="labels-or-instructions" xr:uid="{0485BF01-31D1-437D-9830-95D2044D2156}"/>
-    <hyperlink ref="F19" r:id="rId14" display="https://www.w3.org/Translations/NOTE-UNDERSTANDING-WCAG20-fr/NOTE-UNDERSTANDING-WCAG20-fr-20110706/visual-audio-contrast7.html" xr:uid="{806DDB98-6F78-42FD-8555-E2393D8C62AA}"/>
+    <hyperlink ref="F19" r:id="rId13" location="labels-or-instructions" xr:uid="{0485BF01-31D1-437D-9830-95D2044D2156}"/>
+    <hyperlink ref="F20" r:id="rId14" display="https://www.w3.org/Translations/NOTE-UNDERSTANDING-WCAG20-fr/NOTE-UNDERSTANDING-WCAG20-fr-20110706/visual-audio-contrast7.html" xr:uid="{806DDB98-6F78-42FD-8555-E2393D8C62AA}"/>
     <hyperlink ref="F4" r:id="rId15" xr:uid="{2ED26A5B-8ACB-4E9D-B665-4B6043525229}"/>
-    <hyperlink ref="F20" r:id="rId16" display="https://www.w3.org/WAI/WCAG21/Understanding/link-purpose-in-context.html" xr:uid="{355A84AA-E79C-4240-B608-CE3B437B4375}"/>
+    <hyperlink ref="F21" r:id="rId16" display="https://www.w3.org/WAI/WCAG21/Understanding/link-purpose-in-context.html" xr:uid="{355A84AA-E79C-4240-B608-CE3B437B4375}"/>
+    <hyperlink ref="F14" r:id="rId17" xr:uid="{37C7DD0D-8D0B-4897-8550-6DFFCB3BB128}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
